--- a/medicine/Enfance/Camille_Benyamina/Camille_Benyamina.xlsx
+++ b/medicine/Enfance/Camille_Benyamina/Camille_Benyamina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camille Benyamina est une illustratrice et dessinatrice de bande dessinée française, née à Compiègne le 19 novembre 1987.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après un baccalauréat en arts appliqués, Camille Benyamina a étudié à l'École Émile-Cohl située à Lyon, dans la section édition. 
 Depuis son diplôme, elle travaille pour la littérature jeunesse et la bande dessinée. Elle a publié deux albums chez Casterman en collaboration avec Eddy Simon : le premier sur Violette Nozière, le second, Chaque soir à onze heures, est une adaptation d'un roman de Malika Ferdjoukh.
@@ -546,12 +560,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Illustration
-Rouge Vampire, Lewis Harris, Flammarion, 2012
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rouge Vampire, Lewis Harris, Flammarion, 2012
 Une histoire Terrifiante,  N.M. Zimmerman, Flammarion, 2013
-La porteuse de mots, Anne Pouget, Casterman, 2014
-Bande dessinée
-Kamasutra, avec Eddy Simon, Petit à Petit, 2010
+La porteuse de mots, Anne Pouget, Casterman, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Camille_Benyamina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camille_Benyamina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Kamasutra, avec Eddy Simon, Petit à Petit, 2010
 Contes Russes, Petit à Petit, 2011
 Projet Bermuda III, Gaet’s, couleur JB Dugait, Experience, 2011
 Castermag #39, strips, scénario libre, 2012
